--- a/medicine/Mort/Cimetière_de_l'Est_(Lille)/Cimetière_de_l'Est_(Lille).xlsx
+++ b/medicine/Mort/Cimetière_de_l'Est_(Lille)/Cimetière_de_l'Est_(Lille).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_l%27Est_(Lille)</t>
+          <t>Cimetière_de_l'Est_(Lille)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de l’Est est un cimetière situé au nord-est de Lille entre Euralille, Saint-Maurice Pellevoisin et La Madeleine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_l%27Est_(Lille)</t>
+          <t>Cimetière_de_l'Est_(Lille)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière de l'Est est créé en 1779[1]. Il est agrandi plusieurs fois au cours du XIXe siècle. L’un des terrains appartenait à la famille Coustenoble-Dujardin qui a souhaité que cet ancien parc conserve son caractère paysager[2]. Cette famille de notables locaux a l'un des caveaux les plus anciens du cimetière qui contiendrait jusqu'à 150 personnes[3].
-Il regroupe environ 36 000 tombes[4] sur 22 hectares[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière de l'Est est créé en 1779. Il est agrandi plusieurs fois au cours du XIXe siècle. L’un des terrains appartenait à la famille Coustenoble-Dujardin qui a souhaité que cet ancien parc conserve son caractère paysager. Cette famille de notables locaux a l'un des caveaux les plus anciens du cimetière qui contiendrait jusqu'à 150 personnes.
+Il regroupe environ 36 000 tombes sur 22 hectares.
 Le cimetière est majoritairement catholique mais comportement de nombreuses tombes juives et musulmanes regroupées dans certaines sections et plusieurs tombes chinoises, japonaises, turques, etc. Le cimetière comporte par ailleurs plusieurs tombes franc-maçonnes identifiables par leurs symboles (l'équerre et le compas notamment).
 Il est entretenu par la ville de Lille et des sociétés privées d'aménagement paysager. Il comporte de nombreuses espèces de la faune (écureuils, chats sauvages, oiseaux divers...) et de la flore (nombreuses fleurs d'ornements mais également sauvages ; nombreux arbres divers ; comestibles : kaki, noix, tilleul, ...). Véritable zone de biodiversité de plusieurs hectares au cœur de la ville, le cimetière comporte notamment une mare, des zones de fauchage tardif, des troncs morts laissés pour les insectes et même des ruches sur les toits des sanitaires près de l'entrée Porte du Ballon.
 Le cimetière dispose de sanitaires, de nombreux points d'eau et de trois entrées :
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_l%27Est_(Lille)</t>
+          <t>Cimetière_de_l'Est_(Lille)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,9 +565,11 @@
           <t>Célébrités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De nombreuses personnalités sont enterrées au cimetière de l'Est[1],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De nombreuses personnalités sont enterrées au cimetière de l'Est,.
 Alfred Agache (1843-1915), peintre
 Albert Baert (1863-1951) architecte
 Charles Barrois (1851-1939),  géologue
@@ -575,7 +591,7 @@
 Auguste-Joseph Herlin (1815-1900), peintre et conservateur
 Jules Herman, (1830-1911) flûtiste et professeur au conservatoire de Lille
 Jean Joire (1862-1950), sculpteur
-Alfred Labille (1865-1930), maître-verrier[5]
+Alfred Labille (1865-1930), maître-verrier
 Oscar Lambret (1872-1943), professeur de médecine
 Augustin Laurent (1896-1990), résistant, député socialiste, maire de Lille
 Géry Legrand (1837-1902), journaliste républicain, maire de Lille
